--- a/AISHELL-3_Results.xlsx
+++ b/AISHELL-3_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\Corpus\AISHELL-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946231DD-8196-4DBC-AF59-092A52480169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DAAD48-CFA8-4C95-9BE2-8EB79DB181EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>CER</t>
   </si>
@@ -54,14 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOS for humans</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOS for ChatTTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Average</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,7 +110,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOS for ChatTTS-6</t>
+    <t>Human Speech MOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatTTS MOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEMALE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MALE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,9 +130,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,12 +146,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,7 +174,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -274,7 +281,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MOS for humans</c:v>
+                  <c:v>Human Speech MOS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -404,11 +411,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MOS for ChatTTS</c:v>
+                  <c:v>ChatTTS MOS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -483,45 +490,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$13</c:f>
+              <c:f>Sheet1!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.4121999999999901</c:v>
+                  <c:v>3.4126500000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2379999999999902</c:v>
+                  <c:v>3.238</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0561500000000001</c:v>
+                  <c:v>3.0585499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2170000000000001</c:v>
+                  <c:v>3.2172999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3652500000000001</c:v>
+                  <c:v>3.3654999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.28105</c:v>
+                  <c:v>3.2809499999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.0861499999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9804499999999998</c:v>
+                  <c:v>2.9809999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3007</c:v>
+                  <c:v>3.3001499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1072000000000002</c:v>
+                  <c:v>3.1074999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9282499999999998</c:v>
+                  <c:v>2.9064000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0609000000000002</c:v>
+                  <c:v>3.0623499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1316,7 +1323,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305192" cy="6073205"/>
+    <xdr:ext cx="9303297" cy="6076293"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
@@ -1608,23 +1615,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F2" sqref="F2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1633,38 +1640,32 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.7160000000000002</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.4126500000000002</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D2">
-        <v>3.7160000000000002</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3.6080000000000001</v>
-      </c>
-      <c r="F2">
-        <v>3.4121999999999901</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1675,16 +1676,13 @@
       <c r="D3">
         <v>3.456</v>
       </c>
-      <c r="E3" s="1">
-        <v>3.33299999999999</v>
-      </c>
-      <c r="F3">
-        <v>3.2379999999999902</v>
+      <c r="E3">
+        <v>3.238</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1695,16 +1693,13 @@
       <c r="D4">
         <v>3.1110000000000002</v>
       </c>
-      <c r="E4" s="1">
-        <v>3.573</v>
-      </c>
-      <c r="F4">
-        <v>3.0561500000000001</v>
+      <c r="E4">
+        <v>3.0585499999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1715,16 +1710,13 @@
       <c r="D5">
         <v>3.4950000000000001</v>
       </c>
-      <c r="E5" s="1">
-        <v>3.2429999999999999</v>
-      </c>
-      <c r="F5">
-        <v>3.2170000000000001</v>
+      <c r="E5">
+        <v>3.2172999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1735,56 +1727,47 @@
       <c r="D6">
         <v>3.5489999999999999</v>
       </c>
-      <c r="E6" s="1">
-        <v>3.35</v>
-      </c>
-      <c r="F6">
-        <v>3.3652500000000001</v>
+      <c r="E6">
+        <v>3.3654999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.1680000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.2809499999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.5609999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.0861499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="D7">
-        <v>3.1680000000000001</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3.9616666666666598</v>
-      </c>
-      <c r="F7">
-        <v>3.28105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>2.5609999999999999</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3.0896666666666599</v>
-      </c>
-      <c r="F8">
-        <v>3.0861499999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1795,16 +1778,13 @@
       <c r="D9">
         <v>2.91</v>
       </c>
-      <c r="E9" s="1">
-        <v>3.0983333333333301</v>
-      </c>
-      <c r="F9">
-        <v>2.9804499999999998</v>
+      <c r="E9">
+        <v>2.9809999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1815,36 +1795,30 @@
       <c r="D10">
         <v>2.972</v>
       </c>
-      <c r="E10" s="1">
-        <v>3.43566666666666</v>
-      </c>
-      <c r="F10">
-        <v>3.3007</v>
+      <c r="E10">
+        <v>3.3001499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>2.8580000000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>3.38533333333333</v>
-      </c>
-      <c r="F11">
-        <v>3.1072000000000002</v>
+        <v>3.1074999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -1855,16 +1829,13 @@
       <c r="D12">
         <v>2.577</v>
       </c>
-      <c r="E12" s="1">
-        <v>2.9963333333333302</v>
-      </c>
-      <c r="F12">
-        <v>2.9282499999999998</v>
+      <c r="E12">
+        <v>2.9064000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -1875,16 +1846,13 @@
       <c r="D13">
         <v>2.7349999999999999</v>
       </c>
-      <c r="E13" s="1">
-        <v>2.6413333333333302</v>
-      </c>
-      <c r="F13">
-        <v>3.0609000000000002</v>
+      <c r="E13">
+        <v>3.0623499999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <f>AVERAGE(D2:D13)</f>
@@ -1892,15 +1860,40 @@
       </c>
       <c r="E15">
         <f>AVERAGE(E2:E13)</f>
-        <v>3.3096111111111077</v>
-      </c>
-      <c r="F15">
-        <f>AVERAGE(F2:F13)</f>
-        <v>3.1694416666666654</v>
+        <v>3.1680416666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <f>MAX(D2:D7)</f>
+        <v>3.7160000000000002</v>
+      </c>
+      <c r="E16">
+        <f>MIN(D2:D7)</f>
+        <v>3.1110000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <f>MAX(D8:D13)</f>
+        <v>2.972</v>
+      </c>
+      <c r="E17">
+        <f>MIN(D8:D13)</f>
+        <v>2.5609999999999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D16" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>